--- a/input_data/admin_data/BRA/ptot_2002.xlsx
+++ b/input_data/admin_data/BRA/ptot_2002.xlsx
@@ -118,10 +118,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D2" s="1">
-        <v>0.93789958953857422</v>
+        <v>0.99938827753067017</v>
       </c>
       <c r="E2" s="2">
         <v>106700000</v>
@@ -141,10 +141,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D3" s="1">
-        <v>0.94410961866378784</v>
+        <v>0.99944943189620972</v>
       </c>
       <c r="E3" s="2">
         <v>106700000</v>
@@ -164,10 +164,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D4" s="1">
-        <v>0.95031964778900146</v>
+        <v>0.99951064586639404</v>
       </c>
       <c r="E4" s="2">
         <v>106700000</v>
@@ -187,10 +187,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D5" s="1">
-        <v>0.95652967691421509</v>
+        <v>0.99957180023193359</v>
       </c>
       <c r="E5" s="2">
         <v>106700000</v>
@@ -210,10 +210,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D6" s="1">
-        <v>0.96273976564407349</v>
+        <v>0.99963295459747314</v>
       </c>
       <c r="E6" s="2">
         <v>106700000</v>
@@ -233,10 +233,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D7" s="1">
-        <v>0.96894979476928711</v>
+        <v>0.99969416856765747</v>
       </c>
       <c r="E7" s="2">
         <v>106700000</v>
@@ -256,10 +256,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D8" s="1">
-        <v>0.97515982389450073</v>
+        <v>0.99975532293319702</v>
       </c>
       <c r="E8" s="2">
         <v>106700000</v>
@@ -279,10 +279,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D9" s="1">
-        <v>0.98136985301971436</v>
+        <v>0.99981647729873657</v>
       </c>
       <c r="E9" s="2">
         <v>106700000</v>
@@ -302,10 +302,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D10" s="1">
-        <v>0.98757994174957275</v>
+        <v>0.99987763166427612</v>
       </c>
       <c r="E10" s="2">
         <v>106700000</v>
@@ -325,10 +325,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D11" s="1">
-        <v>0.99378997087478638</v>
+        <v>0.99993884563446045</v>
       </c>
       <c r="E11" s="2">
         <v>106700000</v>
@@ -348,10 +348,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D12" s="1">
-        <v>0.9944109320640564</v>
+        <v>0.99994492530822754</v>
       </c>
       <c r="E12" s="2">
         <v>106700000</v>
@@ -371,10 +371,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D13" s="1">
-        <v>0.99503195285797119</v>
+        <v>0.9999510645866394</v>
       </c>
       <c r="E13" s="2">
         <v>106700000</v>
@@ -394,10 +394,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D14" s="1">
-        <v>0.99565297365188599</v>
+        <v>0.99995720386505127</v>
       </c>
       <c r="E14" s="2">
         <v>106700000</v>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D15" s="1">
-        <v>0.99627399444580078</v>
+        <v>0.99996328353881836</v>
       </c>
       <c r="E15" s="2">
         <v>106700000</v>
@@ -440,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D16" s="1">
-        <v>0.9968949556350708</v>
+        <v>0.99996942281723022</v>
       </c>
       <c r="E16" s="2">
         <v>106700000</v>
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D17" s="1">
-        <v>0.9975159764289856</v>
+        <v>0.99997550249099731</v>
       </c>
       <c r="E17" s="2">
         <v>106700000</v>
@@ -486,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D18" s="1">
-        <v>0.99813699722290039</v>
+        <v>0.99998164176940918</v>
       </c>
       <c r="E18" s="2">
         <v>106700000</v>
@@ -509,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D19" s="1">
-        <v>0.99875801801681519</v>
+        <v>0.99998778104782104</v>
       </c>
       <c r="E19" s="2">
         <v>106700000</v>
@@ -532,10 +532,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D20" s="1">
-        <v>0.99937897920608521</v>
+        <v>0.99999386072158813</v>
       </c>
       <c r="E20" s="2">
         <v>106700000</v>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D21" s="1">
-        <v>0.99944108724594116</v>
+        <v>0.99999451637268066</v>
       </c>
       <c r="E21" s="2">
         <v>106700000</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D22" s="1">
-        <v>0.99950319528579712</v>
+        <v>0.99999511241912842</v>
       </c>
       <c r="E22" s="2">
         <v>106700000</v>
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D23" s="1">
-        <v>0.99956530332565308</v>
+        <v>0.99999570846557617</v>
       </c>
       <c r="E23" s="2">
         <v>106700000</v>
@@ -624,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D24" s="1">
-        <v>0.99962741136550903</v>
+        <v>0.99999630451202393</v>
       </c>
       <c r="E24" s="2">
         <v>106700000</v>
@@ -647,10 +647,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D25" s="1">
-        <v>0.99968951940536499</v>
+        <v>0.99999696016311646</v>
       </c>
       <c r="E25" s="2">
         <v>106700000</v>
@@ -670,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D26" s="1">
-        <v>0.99975162744522095</v>
+        <v>0.99999755620956421</v>
       </c>
       <c r="E26" s="2">
         <v>106700000</v>
@@ -693,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D27" s="1">
-        <v>0.99981367588043213</v>
+        <v>0.99999815225601196</v>
       </c>
       <c r="E27" s="2">
         <v>106700000</v>
@@ -716,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D28" s="1">
-        <v>0.99987578392028809</v>
+        <v>0.99999874830245972</v>
       </c>
       <c r="E28" s="2">
         <v>106700000</v>
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D29" s="1">
-        <v>0.99993789196014404</v>
+        <v>0.99999940395355225</v>
       </c>
       <c r="E29" s="2">
         <v>106700000</v>
@@ -762,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D30" s="1">
-        <v>0.99994409084320068</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E30" s="2">
         <v>106700000</v>
@@ -785,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D31" s="1">
-        <v>0.9999503493309021</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="E31" s="2">
         <v>106700000</v>
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D32" s="1">
-        <v>0.99995654821395874</v>
+        <v>0.99999958276748657</v>
       </c>
       <c r="E32" s="2">
         <v>106700000</v>
@@ -831,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D33" s="1">
-        <v>0.99996274709701538</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="E33" s="2">
         <v>106700000</v>
@@ -854,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D34" s="1">
-        <v>0.99996894598007202</v>
+        <v>0.99999970197677612</v>
       </c>
       <c r="E34" s="2">
         <v>106700000</v>
@@ -877,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D35" s="1">
-        <v>0.99997514486312866</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="E35" s="2">
         <v>106700000</v>
@@ -900,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D36" s="1">
-        <v>0.9999813437461853</v>
+        <v>0.99999982118606567</v>
       </c>
       <c r="E36" s="2">
         <v>106700000</v>
@@ -923,10 +923,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D37" s="1">
-        <v>0.99998760223388672</v>
+        <v>0.99999988079071045</v>
       </c>
       <c r="E37" s="2">
         <v>106700000</v>
@@ -946,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>6105.9333666174689</v>
+        <v>60.146050580527778</v>
       </c>
       <c r="D38" s="1">
-        <v>0.99999380111694336</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="E38" s="2">
         <v>106700000</v>
